--- a/PROFILE_NUOI_MAIL.xlsx
+++ b/PROFILE_NUOI_MAIL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolTraffic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LYN HIEN\Desktop\AutoAntidetectChorme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629FC0A0-9287-4450-95CF-6750424243CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20731A5D-4B0D-4B1A-A11F-D6DE3838A2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="16365" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="11" r:id="rId1"/>
@@ -20,30 +20,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>KEYWORD</t>
-  </si>
-  <si>
-    <t>DOMAIN</t>
-  </si>
-  <si>
-    <t>https://laodong.vn/ban-doc/cong-thuc-tinh-phu-cap-cong-vu-trong-cong-an-nhan-dan-1515796.ldo</t>
-  </si>
-  <si>
-    <t>Công thức tính phụ cấp công vụ trong Công an nhân dân</t>
-  </si>
-  <si>
-    <t>4 nguyên tắc sắp xếp, tổ chức lại đơn vị sự nghiệp khi bỏ cấp huyện</t>
-  </si>
-  <si>
-    <t>https://laodong.vn/thoi-su/4-nguyen-tac-sap-xep-to-chuc-lai-don-vi-su-nghiep-khi-bo-cap-huyen-1516198.ldo</t>
-  </si>
-  <si>
-    <t>Chính phủ yêu cầu theo dõi sát, có giải pháp quản lý thị trường vàng</t>
-  </si>
-  <si>
-    <t>https://laodong.vn/thoi-su/chinh-phu-yeu-cau-theo-doi-sat-co-giai-phap-quan-ly-thi-truong-vang-1516277.ldo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+  <si>
+    <t>PROFILE</t>
+  </si>
+  <si>
+    <t>MAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>huyviafb2016@gmail.com</t>
+  </si>
+  <si>
+    <t>qhuyd@gmail.com</t>
+  </si>
+  <si>
+    <t>vanb@gmail.com</t>
+  </si>
+  <si>
+    <t>leqhjuc@gmail.com</t>
+  </si>
+  <si>
+    <t>YOUTUBE</t>
+  </si>
+  <si>
+    <t>crypto mới</t>
+  </si>
+  <si>
+    <t>tiền điện tử là gì ?</t>
+  </si>
+  <si>
+    <t>liệu tiền điện tử có nổi trội trong những năm tới</t>
+  </si>
+  <si>
+    <t>dự án aidrop mới</t>
+  </si>
+  <si>
+    <t>GOOGLE</t>
+  </si>
+  <si>
+    <t>shop acc game</t>
+  </si>
+  <si>
+    <t>tap hoa mmo</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>tin tuc 24h</t>
+  </si>
+  <si>
+    <t>SEND_MAIL</t>
+  </si>
+  <si>
+    <t>SUBJECT</t>
+  </si>
+  <si>
+    <t>CONTENT</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>buoi sang vui ve</t>
+  </si>
+  <si>
+    <t>kimseang715-Bột3</t>
+  </si>
+  <si>
+    <t>meysrey017-Bột107</t>
+  </si>
+  <si>
+    <t>mhamudmiya2246-Bột108</t>
+  </si>
+  <si>
+    <t>mhassansoliman1990-Bột109</t>
   </si>
 </sst>
 </file>
@@ -973,62 +1027,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
-    <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="4" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I5" s="1"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
